--- a/SchedulingData/dynamic16/pso/scheduling1_7.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling1_7.xlsx
@@ -462,56 +462,56 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>60.8</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>25.62</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>90.92</v>
+        <v>40.3</v>
       </c>
       <c r="E3" t="n">
-        <v>26.568</v>
+        <v>27.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>38.2</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E4" t="n">
         <v>26.88</v>
@@ -519,59 +519,59 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>38.2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>118.08</v>
+        <v>88.81999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>22.512</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>88.81999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>45.3</v>
+        <v>141.72</v>
       </c>
       <c r="E6" t="n">
-        <v>27.16</v>
+        <v>21.628</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>90.92</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>151.94</v>
+        <v>140.68</v>
       </c>
       <c r="E7" t="n">
-        <v>23.576</v>
+        <v>23.232</v>
       </c>
     </row>
     <row r="8">
@@ -580,17 +580,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>118.08</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>183.18</v>
+        <v>102.84</v>
       </c>
       <c r="E8" t="n">
-        <v>19.132</v>
+        <v>25.856</v>
       </c>
     </row>
     <row r="9">
@@ -599,17 +599,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D9" t="n">
-        <v>67.26000000000001</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>25.944</v>
+        <v>23.32</v>
       </c>
     </row>
     <row r="10">
@@ -618,74 +618,74 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>40.3</v>
       </c>
       <c r="D10" t="n">
-        <v>60.6</v>
+        <v>97.88</v>
       </c>
       <c r="E10" t="n">
-        <v>25.62</v>
+        <v>23.512</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>183.18</v>
+        <v>97.88</v>
       </c>
       <c r="D11" t="n">
-        <v>241.6</v>
+        <v>141.48</v>
       </c>
       <c r="E11" t="n">
-        <v>14.92</v>
+        <v>19.792</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>45.3</v>
+        <v>141.72</v>
       </c>
       <c r="D12" t="n">
-        <v>103.66</v>
+        <v>188.72</v>
       </c>
       <c r="E12" t="n">
-        <v>23.944</v>
+        <v>18.548</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>67.26000000000001</v>
+        <v>141.48</v>
       </c>
       <c r="D13" t="n">
-        <v>132.34</v>
+        <v>194.18</v>
       </c>
       <c r="E13" t="n">
-        <v>21.576</v>
+        <v>16.152</v>
       </c>
     </row>
     <row r="14">
@@ -694,150 +694,150 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>151.94</v>
+        <v>188.72</v>
       </c>
       <c r="D14" t="n">
-        <v>187.88</v>
+        <v>239.94</v>
       </c>
       <c r="E14" t="n">
-        <v>21.112</v>
+        <v>15.556</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>132.34</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>203.54</v>
+        <v>57.22</v>
       </c>
       <c r="E15" t="n">
-        <v>17.076</v>
+        <v>27.448</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>203.54</v>
+        <v>102.84</v>
       </c>
       <c r="D16" t="n">
-        <v>268</v>
+        <v>149.84</v>
       </c>
       <c r="E16" t="n">
-        <v>14.22</v>
+        <v>22.776</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>60.6</v>
+        <v>149.84</v>
       </c>
       <c r="D17" t="n">
-        <v>128.74</v>
+        <v>233.26</v>
       </c>
       <c r="E17" t="n">
-        <v>20.916</v>
+        <v>18.564</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>128.74</v>
+        <v>233.26</v>
       </c>
       <c r="D18" t="n">
-        <v>182.9</v>
+        <v>290.02</v>
       </c>
       <c r="E18" t="n">
-        <v>17.12</v>
+        <v>14.508</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>60.8</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>112.12</v>
+        <v>156.9</v>
       </c>
       <c r="E19" t="n">
-        <v>22.628</v>
+        <v>19.72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>241.6</v>
+        <v>194.18</v>
       </c>
       <c r="D20" t="n">
-        <v>286.8</v>
+        <v>245.78</v>
       </c>
       <c r="E20" t="n">
-        <v>11.54</v>
+        <v>13.112</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>112.12</v>
+        <v>57.22</v>
       </c>
       <c r="D21" t="n">
-        <v>164.42</v>
+        <v>107.46</v>
       </c>
       <c r="E21" t="n">
-        <v>19.508</v>
+        <v>24.544</v>
       </c>
     </row>
     <row r="22">
@@ -846,36 +846,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>182.9</v>
+        <v>245.78</v>
       </c>
       <c r="D22" t="n">
-        <v>222.04</v>
+        <v>309.18</v>
       </c>
       <c r="E22" t="n">
-        <v>14.336</v>
+        <v>9.872</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>286.8</v>
+        <v>107.46</v>
       </c>
       <c r="D23" t="n">
-        <v>343.6</v>
+        <v>171.36</v>
       </c>
       <c r="E23" t="n">
-        <v>8.460000000000001</v>
+        <v>21.244</v>
       </c>
     </row>
     <row r="24">
@@ -884,131 +884,131 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>103.66</v>
+        <v>171.36</v>
       </c>
       <c r="D24" t="n">
-        <v>177.92</v>
+        <v>232.66</v>
       </c>
       <c r="E24" t="n">
-        <v>21.128</v>
+        <v>16.744</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>222.04</v>
+        <v>140.68</v>
       </c>
       <c r="D25" t="n">
-        <v>292.7</v>
+        <v>188.56</v>
       </c>
       <c r="E25" t="n">
-        <v>10.36</v>
+        <v>20.064</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>187.88</v>
+        <v>156.9</v>
       </c>
       <c r="D26" t="n">
-        <v>237.98</v>
+        <v>215.2</v>
       </c>
       <c r="E26" t="n">
-        <v>18.232</v>
+        <v>15.52</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>343.6</v>
+        <v>232.66</v>
       </c>
       <c r="D27" t="n">
-        <v>420.6</v>
+        <v>310.76</v>
       </c>
       <c r="E27" t="n">
-        <v>5.38</v>
+        <v>12.544</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>237.98</v>
+        <v>310.76</v>
       </c>
       <c r="D28" t="n">
-        <v>300.56</v>
+        <v>364.8</v>
       </c>
       <c r="E28" t="n">
-        <v>14.584</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>164.42</v>
+        <v>215.2</v>
       </c>
       <c r="D29" t="n">
-        <v>218.68</v>
+        <v>283.54</v>
       </c>
       <c r="E29" t="n">
-        <v>15.712</v>
+        <v>10.816</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>218.68</v>
+        <v>290.02</v>
       </c>
       <c r="D30" t="n">
-        <v>255.5</v>
+        <v>358.58</v>
       </c>
       <c r="E30" t="n">
-        <v>13.16</v>
+        <v>11.292</v>
       </c>
     </row>
     <row r="31">
@@ -1017,36 +1017,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>292.7</v>
+        <v>309.18</v>
       </c>
       <c r="D31" t="n">
-        <v>322.3</v>
+        <v>357.32</v>
       </c>
       <c r="E31" t="n">
-        <v>8.039999999999999</v>
+        <v>7.168</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>322.3</v>
+        <v>283.54</v>
       </c>
       <c r="D32" t="n">
-        <v>395.62</v>
+        <v>336.8</v>
       </c>
       <c r="E32" t="n">
-        <v>3.828</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="33">
@@ -1059,32 +1059,32 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>395.62</v>
+        <v>357.32</v>
       </c>
       <c r="D33" t="n">
-        <v>441.76</v>
+        <v>423.16</v>
       </c>
       <c r="E33" t="n">
-        <v>0.344</v>
+        <v>3.684</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>441.76</v>
+        <v>358.58</v>
       </c>
       <c r="D34" t="n">
-        <v>527.87</v>
+        <v>422.66</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>9.004</v>
       </c>
     </row>
     <row r="35">
@@ -1093,22 +1093,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>268</v>
+        <v>336.8</v>
       </c>
       <c r="D35" t="n">
-        <v>329.7</v>
+        <v>386.16</v>
       </c>
       <c r="E35" t="n">
-        <v>11.18</v>
+        <v>3.804</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1116,127 +1116,127 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>329.7</v>
+        <v>188.56</v>
       </c>
       <c r="D36" t="n">
-        <v>400.7</v>
+        <v>225.06</v>
       </c>
       <c r="E36" t="n">
-        <v>8.66</v>
+        <v>17.544</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>420.6</v>
+        <v>364.8</v>
       </c>
       <c r="D37" t="n">
-        <v>463.1</v>
+        <v>414.06</v>
       </c>
       <c r="E37" t="n">
-        <v>2.26</v>
+        <v>5.964</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>300.56</v>
+        <v>414.06</v>
       </c>
       <c r="D38" t="n">
-        <v>356.06</v>
+        <v>476.46</v>
       </c>
       <c r="E38" t="n">
-        <v>12.144</v>
+        <v>2.844</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>177.92</v>
+        <v>386.16</v>
       </c>
       <c r="D39" t="n">
-        <v>242.82</v>
+        <v>455.35</v>
       </c>
       <c r="E39" t="n">
-        <v>17.768</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>527.87</v>
+        <v>455.35</v>
       </c>
       <c r="D40" t="n">
-        <v>619.73</v>
+        <v>517.01</v>
       </c>
       <c r="E40" t="n">
-        <v>25.464</v>
+        <v>26.024</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>463.1</v>
+        <v>423.16</v>
       </c>
       <c r="D41" t="n">
-        <v>555.08</v>
+        <v>473.68</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>555.08</v>
+        <v>473.68</v>
       </c>
       <c r="D42" t="n">
-        <v>609.86</v>
+        <v>569.78</v>
       </c>
       <c r="E42" t="n">
-        <v>27.192</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
@@ -1245,36 +1245,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>609.86</v>
+        <v>422.66</v>
       </c>
       <c r="D43" t="n">
-        <v>655.1</v>
+        <v>519.02</v>
       </c>
       <c r="E43" t="n">
-        <v>24.288</v>
+        <v>4.468</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>356.06</v>
+        <v>225.06</v>
       </c>
       <c r="D44" t="n">
-        <v>419.36</v>
+        <v>280.16</v>
       </c>
       <c r="E44" t="n">
-        <v>8.423999999999999</v>
+        <v>13.164</v>
       </c>
     </row>
     <row r="45">
@@ -1283,36 +1283,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>255.5</v>
+        <v>280.16</v>
       </c>
       <c r="D45" t="n">
-        <v>308.1</v>
+        <v>345.26</v>
       </c>
       <c r="E45" t="n">
-        <v>9.52</v>
+        <v>10.724</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>242.82</v>
+        <v>239.94</v>
       </c>
       <c r="D46" t="n">
-        <v>305.88</v>
+        <v>290.14</v>
       </c>
       <c r="E46" t="n">
-        <v>14.552</v>
+        <v>12.676</v>
       </c>
     </row>
     <row r="47">
@@ -1321,17 +1321,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>400.7</v>
+        <v>517.01</v>
       </c>
       <c r="D47" t="n">
-        <v>455</v>
+        <v>561.29</v>
       </c>
       <c r="E47" t="n">
-        <v>5.36</v>
+        <v>23.216</v>
       </c>
     </row>
     <row r="48">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>308.1</v>
+        <v>345.26</v>
       </c>
       <c r="D48" t="n">
-        <v>361</v>
+        <v>426.38</v>
       </c>
       <c r="E48" t="n">
-        <v>5.36</v>
+        <v>6.692</v>
       </c>
     </row>
     <row r="49">
@@ -1359,188 +1359,188 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>361</v>
+        <v>426.38</v>
       </c>
       <c r="D49" t="n">
-        <v>414.4</v>
+        <v>501.26</v>
       </c>
       <c r="E49" t="n">
-        <v>1.16</v>
+        <v>2.324</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>414.4</v>
+        <v>290.14</v>
       </c>
       <c r="D50" t="n">
-        <v>498.68</v>
+        <v>330.14</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>9.316000000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>455</v>
+        <v>501.26</v>
       </c>
       <c r="D51" t="n">
-        <v>562.24</v>
+        <v>578.3099999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>1.216</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>562.24</v>
+        <v>578.3099999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>666.21</v>
+        <v>616.51</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>666.21</v>
+        <v>519.02</v>
       </c>
       <c r="D53" t="n">
-        <v>725.3099999999999</v>
+        <v>583.72</v>
       </c>
       <c r="E53" t="n">
-        <v>26.76</v>
+        <v>1.088</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>498.68</v>
+        <v>583.72</v>
       </c>
       <c r="D54" t="n">
-        <v>547.16</v>
+        <v>653.54</v>
       </c>
       <c r="E54" t="n">
-        <v>26.832</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>419.36</v>
+        <v>616.51</v>
       </c>
       <c r="D55" t="n">
-        <v>495.78</v>
+        <v>660.91</v>
       </c>
       <c r="E55" t="n">
-        <v>4.392</v>
+        <v>23.58</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>547.16</v>
+        <v>569.78</v>
       </c>
       <c r="D56" t="n">
-        <v>600.66</v>
+        <v>618.9</v>
       </c>
       <c r="E56" t="n">
-        <v>23.592</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>305.88</v>
+        <v>330.14</v>
       </c>
       <c r="D57" t="n">
-        <v>375.08</v>
+        <v>416.32</v>
       </c>
       <c r="E57" t="n">
-        <v>11.252</v>
+        <v>5.788</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>375.08</v>
+        <v>416.32</v>
       </c>
       <c r="D58" t="n">
-        <v>451.78</v>
+        <v>485.88</v>
       </c>
       <c r="E58" t="n">
-        <v>7.652</v>
+        <v>2.932</v>
       </c>
     </row>
     <row r="59">
@@ -1549,93 +1549,93 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>451.78</v>
+        <v>476.46</v>
       </c>
       <c r="D59" t="n">
-        <v>540.48</v>
+        <v>522.4</v>
       </c>
       <c r="E59" t="n">
-        <v>4.352</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>600.66</v>
+        <v>522.4</v>
       </c>
       <c r="D60" t="n">
-        <v>644</v>
+        <v>618.04</v>
       </c>
       <c r="E60" t="n">
-        <v>20.888</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>655.1</v>
+        <v>485.88</v>
       </c>
       <c r="D61" t="n">
-        <v>712.88</v>
+        <v>576.42</v>
       </c>
       <c r="E61" t="n">
-        <v>20.64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>712.88</v>
+        <v>576.42</v>
       </c>
       <c r="D62" t="n">
-        <v>756.86</v>
+        <v>637.02</v>
       </c>
       <c r="E62" t="n">
-        <v>18.352</v>
+        <v>25.62</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>540.48</v>
+        <v>561.29</v>
       </c>
       <c r="D63" t="n">
-        <v>633.5</v>
+        <v>621.27</v>
       </c>
       <c r="E63" t="n">
-        <v>0.14</v>
+        <v>18.848</v>
       </c>
     </row>
     <row r="64">
@@ -1644,74 +1644,74 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>633.5</v>
+        <v>618.04</v>
       </c>
       <c r="D64" t="n">
-        <v>734.72</v>
+        <v>669.96</v>
       </c>
       <c r="E64" t="n">
-        <v>30</v>
+        <v>27.008</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>619.73</v>
+        <v>621.27</v>
       </c>
       <c r="D65" t="n">
-        <v>701.11</v>
+        <v>660.77</v>
       </c>
       <c r="E65" t="n">
-        <v>21.936</v>
+        <v>16.528</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>495.78</v>
+        <v>653.54</v>
       </c>
       <c r="D66" t="n">
-        <v>578.6799999999999</v>
+        <v>717.4400000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>0.192</v>
+        <v>26.76</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>578.6799999999999</v>
+        <v>660.77</v>
       </c>
       <c r="D67" t="n">
-        <v>674.7</v>
+        <v>734.83</v>
       </c>
       <c r="E67" t="n">
-        <v>30</v>
+        <v>13.712</v>
       </c>
     </row>
   </sheetData>
